--- a/documentatie/vergadering/Agenda/agenda_26-09-2017.xlsx
+++ b/documentatie/vergadering/Agenda/agenda_26-09-2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -184,9 +184,6 @@
     <t>Bijlagen:</t>
   </si>
   <si>
-    <t>Tijd: 09.00</t>
-  </si>
-  <si>
     <t>Locatie: Lokaal BN0330</t>
   </si>
   <si>
@@ -196,9 +193,6 @@
     <t xml:space="preserve"> AGENDA Barroc-IT Groep</t>
   </si>
   <si>
-    <t>Datum:25 aug 2016</t>
-  </si>
-  <si>
     <t>Vaststellen volgende vergadering</t>
   </si>
   <si>
@@ -218,6 +212,12 @@
   </si>
   <si>
     <t>Notulen aan : Jarno, Santi, Ben, Tim Lutt</t>
+  </si>
+  <si>
+    <t>Tijd: 10.00</t>
+  </si>
+  <si>
+    <t>Datum:26 sep 2017</t>
   </si>
 </sst>
 </file>
@@ -980,8 +980,8 @@
   </sheetPr>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,12 +1014,12 @@
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
       <c r="E3" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="18"/>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="22" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="24"/>
@@ -1090,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="39"/>
       <c r="H8" s="40"/>
@@ -1124,7 +1124,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G10" s="39"/>
       <c r="H10" s="40"/>
@@ -1133,14 +1133,14 @@
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="35"/>
       <c r="C11" s="35">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D11" s="44"/>
       <c r="E11" s="37">
         <v>4</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G11" s="45"/>
       <c r="H11" s="46"/>
@@ -1149,14 +1149,14 @@
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="35"/>
       <c r="C12" s="35">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D12" s="44"/>
       <c r="E12" s="37">
         <v>5</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G12" s="45"/>
       <c r="H12" s="46"/>
@@ -1165,14 +1165,14 @@
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="35"/>
       <c r="C13" s="35">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D13" s="44"/>
       <c r="E13" s="37">
         <v>6</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G13" s="45"/>
       <c r="H13" s="46"/>
@@ -1202,7 +1202,7 @@
         <v>8</v>
       </c>
       <c r="F15" s="43" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G15" s="39"/>
       <c r="H15" s="40"/>
@@ -1250,7 +1250,7 @@
       <c r="F18" s="57"/>
       <c r="G18" s="57"/>
       <c r="H18" s="58" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1265,7 +1265,7 @@
       <c r="F19" s="61"/>
       <c r="G19" s="61"/>
       <c r="H19" s="58" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1521,12 +1521,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C8428B090D81B34DA19517DD6F855647" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="461551752daf7baccd316804784cc5e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b118b0825d757084c8d1e1ffd33f200c">
     <xsd:element name="properties">
@@ -1575,6 +1569,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1585,20 +1585,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC78C7E-41AD-4518-BFAA-0ABA4B09AB48}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8B5FF3C-AF10-4D69-A171-7686A3EF9E92}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1613,6 +1599,20 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC78C7E-41AD-4518-BFAA-0ABA4B09AB48}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56D4A539-5E71-46A4-A076-A8448D6640BC}">
   <ds:schemaRefs>
